--- a/INPUTS/202003_Asistencia_CRO.xlsx
+++ b/INPUTS/202003_Asistencia_CRO.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\convertidor_xls\convertidos_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\convertidor_xls\convertidos_xlsx\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9095A79-981C-4AEF-98F3-A2FE1FCD19A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C96A2E-B2F1-4441-9427-600FD98FE6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="405" windowWidth="20880" windowHeight="12855" xr2:uid="{4C77BCAE-DC6B-4338-9FCD-DCFA9273A5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C77BCAE-DC6B-4338-9FCD-DCFA9273A5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
   <si>
     <t xml:space="preserve">Lunes </t>
   </si>
@@ -642,7 +641,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,22 +3164,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A7C903-CA4A-4F9F-8D3C-6C34F063D930}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>